--- a/nmadb/473552.xlsx
+++ b/nmadb/473552.xlsx
@@ -1,6 +1,1046 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
+</workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stagiaire_2018</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stagiaire_2018:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SMS:
+For calculation of r</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stagiaire_2018:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Analysis was conducted by treatment class but data was presented by treatment; both have been abstracted
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>tx class</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Outcome:</t>
+  </si>
+  <si>
+    <t>ACR70</t>
+  </si>
+  <si>
+    <t>Nishimoto, 2007</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>TOC</t>
+  </si>
+  <si>
+    <t>dmard or MTX</t>
+  </si>
+  <si>
+    <t>Smolen, 2008</t>
+  </si>
+  <si>
+    <t>TOC+MTX or DMARD</t>
+  </si>
+  <si>
+    <t>GOL</t>
+  </si>
+  <si>
+    <t>GOL+MTX or DMARD</t>
+  </si>
+  <si>
+    <t>Genovese, 2008</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>INF+MTX or DMARD</t>
+  </si>
+  <si>
+    <t>Emery, 2008</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>ADL</t>
+  </si>
+  <si>
+    <t>ADL+MTX or DMARD</t>
+  </si>
+  <si>
+    <t>Jones, 2009</t>
+  </si>
+  <si>
+    <t>ETN+MTX or DMARD</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
+    <t>Keystone, 2009,</t>
+  </si>
+  <si>
+    <t>CRT+MTX or DMARD</t>
+  </si>
+  <si>
+    <t>CRT</t>
+  </si>
+  <si>
+    <t>ABT+MTX or DMARD</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>Smolen, 2009</t>
+  </si>
+  <si>
+    <t>RTX+MTX or DMARD</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>RTX+Cyclo</t>
+  </si>
+  <si>
+    <t>Emery, 2009</t>
+  </si>
+  <si>
+    <t>Treatment Classes:</t>
+  </si>
+  <si>
+    <t>Placebo/Standard Care</t>
+  </si>
+  <si>
+    <t>abatacept</t>
+  </si>
+  <si>
+    <t>Maini, 1999/Lipsky 2000</t>
+  </si>
+  <si>
+    <t>adalimumab</t>
+  </si>
+  <si>
+    <t>certolizumab</t>
+  </si>
+  <si>
+    <t>etanercept</t>
+  </si>
+  <si>
+    <t>golimumab</t>
+  </si>
+  <si>
+    <t>infliximab</t>
+  </si>
+  <si>
+    <t>Clair, 2004,</t>
+  </si>
+  <si>
+    <t>rituximab</t>
+  </si>
+  <si>
+    <t>tocilizumab</t>
+  </si>
+  <si>
+    <t>Wcsthovens, 2006,</t>
+  </si>
+  <si>
+    <t>Furst, 2003,</t>
+  </si>
+  <si>
+    <t>Keystone, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Van de Putte, 2004</t>
+  </si>
+  <si>
+    <t>Weinblatt, 2003</t>
+  </si>
+  <si>
+    <t>Miyasaka, 2008</t>
+  </si>
+  <si>
+    <t>Breedveld, 2005,</t>
+  </si>
+  <si>
+    <t>Weinblatt, 1999</t>
+  </si>
+  <si>
+    <t>Emery, 2008,</t>
+  </si>
+  <si>
+    <t>Moreland, 1999</t>
+  </si>
+  <si>
+    <t>Bathon, 2000</t>
+  </si>
+  <si>
+    <t>Klareskog, 2004,</t>
+  </si>
+  <si>
+    <t>Keystone, 2008</t>
+  </si>
+  <si>
+    <t>Smolen, 2009 RAPID2</t>
+  </si>
+  <si>
+    <t>Fleischmann, 2009</t>
+  </si>
+  <si>
+    <t>Genovese, 2005,</t>
+  </si>
+  <si>
+    <t>Kremer, 2003</t>
+  </si>
+  <si>
+    <t>Kremer, 2006</t>
+  </si>
+  <si>
+    <t>Weinblatt, 2006</t>
+  </si>
+  <si>
+    <t>Cohen, 2006</t>
+  </si>
+  <si>
+    <t>Edwards, 2004</t>
+  </si>
+  <si>
+    <t>Emery, 2006,</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="34">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="18">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.49995422223578601"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="58">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="56" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="58">
+    <cellStyle name="20% - Accent1" xfId="1"/>
+    <cellStyle name="20% - Accent2" xfId="2"/>
+    <cellStyle name="20% - Accent3" xfId="3"/>
+    <cellStyle name="20% - Accent4" xfId="4"/>
+    <cellStyle name="20% - Accent5" xfId="5"/>
+    <cellStyle name="20% - Accent6" xfId="6"/>
+    <cellStyle name="40% - Accent1" xfId="7"/>
+    <cellStyle name="40% - Accent2" xfId="8"/>
+    <cellStyle name="40% - Accent3" xfId="9"/>
+    <cellStyle name="40% - Accent4" xfId="10"/>
+    <cellStyle name="40% - Accent5" xfId="11"/>
+    <cellStyle name="40% - Accent6" xfId="12"/>
+    <cellStyle name="60% - Accent1" xfId="13"/>
+    <cellStyle name="60% - Accent2" xfId="14"/>
+    <cellStyle name="60% - Accent3" xfId="15"/>
+    <cellStyle name="60% - Accent4" xfId="16"/>
+    <cellStyle name="60% - Accent5" xfId="17"/>
+    <cellStyle name="60% - Accent6" xfId="18"/>
+    <cellStyle name="Accent1 2" xfId="19"/>
+    <cellStyle name="Accent1 3" xfId="49"/>
+    <cellStyle name="Accent1 4" xfId="48"/>
+    <cellStyle name="Accent2 2" xfId="20"/>
+    <cellStyle name="Accent2 3" xfId="50"/>
+    <cellStyle name="Accent2 4" xfId="47"/>
+    <cellStyle name="Accent3 2" xfId="21"/>
+    <cellStyle name="Accent3 3" xfId="51"/>
+    <cellStyle name="Accent3 4" xfId="46"/>
+    <cellStyle name="Accent4 2" xfId="22"/>
+    <cellStyle name="Accent4 3" xfId="52"/>
+    <cellStyle name="Accent4 4" xfId="45"/>
+    <cellStyle name="Accent5 2" xfId="23"/>
+    <cellStyle name="Accent5 3" xfId="53"/>
+    <cellStyle name="Accent5 4" xfId="44"/>
+    <cellStyle name="Accent6 2" xfId="24"/>
+    <cellStyle name="Accent6 3" xfId="54"/>
+    <cellStyle name="Accent6 4" xfId="43"/>
+    <cellStyle name="Bad" xfId="25"/>
+    <cellStyle name="Calculation" xfId="26"/>
+    <cellStyle name="Check Cell" xfId="27"/>
+    <cellStyle name="Explanatory Text" xfId="28"/>
+    <cellStyle name="Good" xfId="29"/>
+    <cellStyle name="Heading 1" xfId="30"/>
+    <cellStyle name="Heading 2" xfId="31"/>
+    <cellStyle name="Heading 3" xfId="32"/>
+    <cellStyle name="Heading 4" xfId="33"/>
+    <cellStyle name="Input" xfId="34"/>
+    <cellStyle name="Linked Cell" xfId="35"/>
+    <cellStyle name="Neutral" xfId="36"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="42"/>
+    <cellStyle name="Normal 4" xfId="56"/>
+    <cellStyle name="Note" xfId="37"/>
+    <cellStyle name="Output" xfId="38"/>
+    <cellStyle name="Title" xfId="39"/>
+    <cellStyle name="Total 2" xfId="40"/>
+    <cellStyle name="Total 3" xfId="55"/>
+    <cellStyle name="Total 4" xfId="57"/>
+    <cellStyle name="Warning Text" xfId="41"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +1114,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +1148,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +1182,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +1317,2586 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A2" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5">
+        <v>52.14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>158</v>
+      </c>
+      <c r="H2" s="6">
+        <v>33</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="15">
+        <v>1</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8.879999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>148</v>
+      </c>
+      <c r="H3" s="6">
+        <v>6</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="11">
+        <v>2</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A4" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="27">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45.1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>205</v>
+      </c>
+      <c r="H4" s="6">
+        <v>22</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="11">
+        <v>3</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="26">
+        <v>2</v>
+      </c>
+      <c r="D5" s="27">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5">
+        <v>25.68</v>
+      </c>
+      <c r="G5" s="4">
+        <v>214</v>
+      </c>
+      <c r="H5" s="6">
+        <v>12</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="11">
+        <v>4</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="26">
+        <v>2</v>
+      </c>
+      <c r="D6" s="27">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.08</v>
+      </c>
+      <c r="G6" s="4">
+        <v>204</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="11">
+        <v>5</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A7" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="27">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>169.04999999999998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>805</v>
+      </c>
+      <c r="H7" s="6">
+        <v>21</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="11">
+        <v>6</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="26">
+        <v>3</v>
+      </c>
+      <c r="D8" s="27">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>12.45</v>
+      </c>
+      <c r="G8" s="4">
+        <v>415</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="11">
+        <v>7</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A9" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="27">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4">
+        <v>175</v>
+      </c>
+      <c r="H9" s="6">
+        <v>12</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="11">
+        <v>8</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="26">
+        <v>4</v>
+      </c>
+      <c r="D10" s="27">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5">
+        <v>8.15</v>
+      </c>
+      <c r="G10" s="4">
+        <v>163</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="11">
+        <v>9</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="26">
+        <v>4</v>
+      </c>
+      <c r="D11" s="27">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="4">
+        <v>160</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="11">
+        <v>10</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A12" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5">
+        <v>80.080000000000013</v>
+      </c>
+      <c r="G12" s="4">
+        <v>286</v>
+      </c>
+      <c r="H12" s="6">
+        <v>28</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="11">
+        <v>11</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="26">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>42.884</v>
+      </c>
+      <c r="G13" s="4">
+        <v>284</v>
+      </c>
+      <c r="H13" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="11">
+        <v>12</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="27">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5">
+        <v>14.63</v>
+      </c>
+      <c r="G14" s="4">
+        <v>133</v>
+      </c>
+      <c r="H14" s="6">
+        <v>11</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="11">
+        <v>13</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="26">
+        <v>6</v>
+      </c>
+      <c r="D15" s="27">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5">
+        <v>17.8</v>
+      </c>
+      <c r="G15" s="4">
+        <v>89</v>
+      </c>
+      <c r="H15" s="6">
+        <v>20</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="11">
+        <v>14</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="26">
+        <v>6</v>
+      </c>
+      <c r="D16" s="27">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5">
+        <v>13.35</v>
+      </c>
+      <c r="G16" s="4">
+        <v>89</v>
+      </c>
+      <c r="H16" s="6">
+        <v>15</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="11">
+        <v>15</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="26">
+        <v>6</v>
+      </c>
+      <c r="D17" s="27">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>6.65</v>
+      </c>
+      <c r="G17" s="4">
+        <v>133</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="11">
+        <v>16</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A18" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
+      <c r="D18" s="27">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5">
+        <v>18.36</v>
+      </c>
+      <c r="G18" s="4">
+        <v>153</v>
+      </c>
+      <c r="H18" s="6">
+        <v>12</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="11">
+        <v>17</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="26">
+        <v>7</v>
+      </c>
+      <c r="D19" s="27">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6</v>
+      </c>
+      <c r="F19" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>153</v>
+      </c>
+      <c r="H19" s="6">
+        <v>10</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21">
+        <v>18</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="26">
+        <v>7</v>
+      </c>
+      <c r="D20" s="27">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4.6499999999999995</v>
+      </c>
+      <c r="G20" s="4">
+        <v>155</v>
+      </c>
+      <c r="H20" s="6">
+        <v>3</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="24">
+        <v>19</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+      <c r="D21" s="27">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7">
+        <v>6</v>
+      </c>
+      <c r="F21" s="5">
+        <v>22.26</v>
+      </c>
+      <c r="G21" s="4">
+        <v>159</v>
+      </c>
+      <c r="H21" s="6">
+        <v>14</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="26">
+        <v>8</v>
+      </c>
+      <c r="D22" s="27">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="G22" s="4">
+        <v>159</v>
+      </c>
+      <c r="H22" s="6">
+        <v>24</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="26">
+        <v>8</v>
+      </c>
+      <c r="D23" s="27">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>6</v>
+      </c>
+      <c r="F23" s="5">
+        <v>28.619999999999997</v>
+      </c>
+      <c r="G23" s="4">
+        <v>159</v>
+      </c>
+      <c r="H23" s="6">
+        <v>18</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="12">
+        <v>1</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="26">
+        <v>8</v>
+      </c>
+      <c r="D24" s="27">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="G24" s="4">
+        <v>160</v>
+      </c>
+      <c r="H24" s="6">
+        <v>16</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="12">
+        <v>2</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2">
+        <v>9</v>
+      </c>
+      <c r="D25" s="27">
+        <v>7</v>
+      </c>
+      <c r="E25" s="7">
+        <v>7</v>
+      </c>
+      <c r="F25" s="5">
+        <v>6.88</v>
+      </c>
+      <c r="G25" s="4">
+        <v>86</v>
+      </c>
+      <c r="H25" s="6">
+        <v>8</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="13">
+        <v>3</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="26">
+        <v>9</v>
+      </c>
+      <c r="D26" s="27">
+        <v>7</v>
+      </c>
+      <c r="E26" s="7">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="G26" s="4">
+        <v>86</v>
+      </c>
+      <c r="H26" s="6">
+        <v>10</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="13">
+        <v>4</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="26">
+        <v>9</v>
+      </c>
+      <c r="D27" s="27">
+        <v>7</v>
+      </c>
+      <c r="E27" s="7">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5">
+        <v>15.39</v>
+      </c>
+      <c r="G27" s="4">
+        <v>81</v>
+      </c>
+      <c r="H27" s="6">
+        <v>19</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="13">
+        <v>5</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="26">
+        <v>9</v>
+      </c>
+      <c r="D28" s="27">
+        <v>7</v>
+      </c>
+      <c r="E28" s="7">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5">
+        <v>8.91</v>
+      </c>
+      <c r="G28" s="4">
+        <v>81</v>
+      </c>
+      <c r="H28" s="6">
+        <v>11</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="13">
+        <v>6</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="26">
+        <v>9</v>
+      </c>
+      <c r="D29" s="27">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>88</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="13">
+        <v>7</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="27">
+        <v>8</v>
+      </c>
+      <c r="E30" s="7">
+        <v>7</v>
+      </c>
+      <c r="F30" s="5">
+        <v>115.63</v>
+      </c>
+      <c r="G30" s="4">
+        <v>373</v>
+      </c>
+      <c r="H30" s="6">
+        <v>31</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="13">
+        <v>8</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="26">
+        <v>10</v>
+      </c>
+      <c r="D31" s="27">
+        <v>8</v>
+      </c>
+      <c r="E31" s="7">
+        <v>7</v>
+      </c>
+      <c r="F31" s="5">
+        <v>136.07999999999998</v>
+      </c>
+      <c r="G31" s="4">
+        <v>378</v>
+      </c>
+      <c r="H31" s="6">
+        <v>36</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="13">
+        <v>9</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="26">
+        <v>10</v>
+      </c>
+      <c r="D32" s="27">
+        <v>6</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>59.6</v>
+      </c>
+      <c r="G32" s="4">
+        <v>298</v>
+      </c>
+      <c r="H32" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2">
+        <v>11</v>
+      </c>
+      <c r="D33" s="27">
+        <v>7</v>
+      </c>
+      <c r="E33" s="7">
+        <v>7</v>
+      </c>
+      <c r="F33" s="5">
+        <v>50.540000000000006</v>
+      </c>
+      <c r="G33" s="4">
+        <v>361</v>
+      </c>
+      <c r="H33" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="26">
+        <v>11</v>
+      </c>
+      <c r="D34" s="27">
+        <v>7</v>
+      </c>
+      <c r="E34" s="7">
+        <v>7</v>
+      </c>
+      <c r="F34" s="5">
+        <v>57.6</v>
+      </c>
+      <c r="G34" s="4">
+        <v>360</v>
+      </c>
+      <c r="H34" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="26">
+        <v>11</v>
+      </c>
+      <c r="D35" s="27">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="G35" s="4">
+        <v>363</v>
+      </c>
+      <c r="H35" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="2">
+        <v>12</v>
+      </c>
+      <c r="D36" s="27">
+        <v>9</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5">
+        <v>47.699999999999996</v>
+      </c>
+      <c r="G36" s="4">
+        <v>318</v>
+      </c>
+      <c r="H36" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="26">
+        <v>12</v>
+      </c>
+      <c r="D37" s="27">
+        <v>6</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="G37" s="4">
+        <v>318</v>
+      </c>
+      <c r="H37" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" s="27">
+        <v>10</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5">
+        <v>44.519999999999996</v>
+      </c>
+      <c r="G38" s="4">
+        <v>212</v>
+      </c>
+      <c r="H38" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="26">
+        <v>13</v>
+      </c>
+      <c r="D39" s="27">
+        <v>10</v>
+      </c>
+      <c r="E39" s="7">
+        <v>5</v>
+      </c>
+      <c r="F39" s="5">
+        <v>37.26</v>
+      </c>
+      <c r="G39" s="4">
+        <v>207</v>
+      </c>
+      <c r="H39" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="26">
+        <v>13</v>
+      </c>
+      <c r="D40" s="27">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>4</v>
+      </c>
+      <c r="G40" s="4">
+        <v>200</v>
+      </c>
+      <c r="H40" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="2">
+        <v>14</v>
+      </c>
+      <c r="D41" s="27">
+        <v>9</v>
+      </c>
+      <c r="E41" s="7">
+        <v>3</v>
+      </c>
+      <c r="F41" s="5">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="G41" s="4">
+        <v>112</v>
+      </c>
+      <c r="H41" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="26">
+        <v>14</v>
+      </c>
+      <c r="D42" s="27">
+        <v>9</v>
+      </c>
+      <c r="E42" s="7">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5">
+        <v>10.44</v>
+      </c>
+      <c r="G42" s="4">
+        <v>116</v>
+      </c>
+      <c r="H42" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="26">
+        <v>14</v>
+      </c>
+      <c r="D43" s="27">
+        <v>9</v>
+      </c>
+      <c r="E43" s="7">
+        <v>3</v>
+      </c>
+      <c r="F43" s="5">
+        <v>18.54</v>
+      </c>
+      <c r="G43" s="4">
+        <v>103</v>
+      </c>
+      <c r="H43" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="26">
+        <v>14</v>
+      </c>
+      <c r="D44" s="27">
+        <v>9</v>
+      </c>
+      <c r="E44" s="7">
+        <v>3</v>
+      </c>
+      <c r="F44" s="5">
+        <v>13.559999999999999</v>
+      </c>
+      <c r="G44" s="4">
+        <v>113</v>
+      </c>
+      <c r="H44" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="26">
+        <v>14</v>
+      </c>
+      <c r="D45" s="27">
+        <v>6</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G45" s="4">
+        <v>110</v>
+      </c>
+      <c r="H45" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="2">
+        <v>15</v>
+      </c>
+      <c r="D46" s="27">
+        <v>10</v>
+      </c>
+      <c r="E46" s="7">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="G46" s="4">
+        <v>69</v>
+      </c>
+      <c r="H46" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="26">
+        <v>15</v>
+      </c>
+      <c r="D47" s="27">
+        <v>10</v>
+      </c>
+      <c r="E47" s="7">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5">
+        <v>18.09</v>
+      </c>
+      <c r="G47" s="4">
+        <v>67</v>
+      </c>
+      <c r="H47" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="26">
+        <v>15</v>
+      </c>
+      <c r="D48" s="27">
+        <v>10</v>
+      </c>
+      <c r="E48" s="7">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5">
+        <v>13.870000000000001</v>
+      </c>
+      <c r="G48" s="4">
+        <v>73</v>
+      </c>
+      <c r="H48" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="26">
+        <v>15</v>
+      </c>
+      <c r="D49" s="27">
+        <v>2</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>62</v>
+      </c>
+      <c r="H49" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2">
+        <v>16</v>
+      </c>
+      <c r="D50" s="27">
+        <v>9</v>
+      </c>
+      <c r="E50" s="7">
+        <v>3</v>
+      </c>
+      <c r="F50" s="5">
+        <v>8.7000000000000011</v>
+      </c>
+      <c r="G50" s="4">
+        <v>87</v>
+      </c>
+      <c r="H50" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="26">
+        <v>16</v>
+      </c>
+      <c r="D51" s="27">
+        <v>9</v>
+      </c>
+      <c r="E51" s="7">
+        <v>3</v>
+      </c>
+      <c r="F51" s="5">
+        <v>10.92</v>
+      </c>
+      <c r="G51" s="4">
+        <v>91</v>
+      </c>
+      <c r="H51" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="26">
+        <v>16</v>
+      </c>
+      <c r="D52" s="27">
+        <v>9</v>
+      </c>
+      <c r="E52" s="7">
+        <v>3</v>
+      </c>
+      <c r="F52" s="5">
+        <v>13.049999999999999</v>
+      </c>
+      <c r="G52" s="4">
+        <v>87</v>
+      </c>
+      <c r="H52" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="26">
+        <v>16</v>
+      </c>
+      <c r="D53" s="27">
+        <v>6</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.95700000000000007</v>
+      </c>
+      <c r="G53" s="4">
+        <v>87</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="2">
+        <v>17</v>
+      </c>
+      <c r="D54" s="27">
+        <v>9</v>
+      </c>
+      <c r="E54" s="7">
+        <v>3</v>
+      </c>
+      <c r="F54" s="5">
+        <v>71.240000000000009</v>
+      </c>
+      <c r="G54" s="4">
+        <v>274</v>
+      </c>
+      <c r="H54" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="26">
+        <v>17</v>
+      </c>
+      <c r="D55" s="27">
+        <v>10</v>
+      </c>
+      <c r="E55" s="7">
+        <v>3</v>
+      </c>
+      <c r="F55" s="5">
+        <v>123.28</v>
+      </c>
+      <c r="G55" s="4">
+        <v>268</v>
+      </c>
+      <c r="H55" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="26">
+        <v>17</v>
+      </c>
+      <c r="D56" s="27">
+        <v>2</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
+        <v>71.960000000000008</v>
+      </c>
+      <c r="G56" s="4">
+        <v>257</v>
+      </c>
+      <c r="H56" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="2">
+        <v>18</v>
+      </c>
+      <c r="D57" s="27">
+        <v>11</v>
+      </c>
+      <c r="E57" s="7">
+        <v>5</v>
+      </c>
+      <c r="F57" s="5">
+        <v>8.85</v>
+      </c>
+      <c r="G57" s="4">
+        <v>59</v>
+      </c>
+      <c r="H57" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="26">
+        <v>18</v>
+      </c>
+      <c r="D58" s="27">
+        <v>2</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>30</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2">
+        <v>19</v>
+      </c>
+      <c r="D59" s="27">
+        <v>11</v>
+      </c>
+      <c r="E59" s="7">
+        <v>5</v>
+      </c>
+      <c r="F59" s="5">
+        <v>131.51999999999998</v>
+      </c>
+      <c r="G59" s="4">
+        <v>274</v>
+      </c>
+      <c r="H59" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="26">
+        <v>19</v>
+      </c>
+      <c r="D60" s="27">
+        <v>2</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>75.040000000000006</v>
+      </c>
+      <c r="G60" s="4">
+        <v>268</v>
+      </c>
+      <c r="H60" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="2">
+        <v>20</v>
+      </c>
+      <c r="D61" s="27">
+        <v>12</v>
+      </c>
+      <c r="E61" s="7">
+        <v>5</v>
+      </c>
+      <c r="F61" s="5">
+        <v>6.84</v>
+      </c>
+      <c r="G61" s="4">
+        <v>76</v>
+      </c>
+      <c r="H61" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="26">
+        <v>20</v>
+      </c>
+      <c r="D62" s="27">
+        <v>12</v>
+      </c>
+      <c r="E62" s="7">
+        <v>5</v>
+      </c>
+      <c r="F62" s="5">
+        <v>11.7</v>
+      </c>
+      <c r="G62" s="4">
+        <v>78</v>
+      </c>
+      <c r="H62" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="26">
+        <v>20</v>
+      </c>
+      <c r="D63" s="27">
+        <v>6</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G63" s="7">
+        <v>80</v>
+      </c>
+      <c r="H63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2">
+        <v>21</v>
+      </c>
+      <c r="D64" s="27">
+        <v>12</v>
+      </c>
+      <c r="E64" s="7">
+        <v>5</v>
+      </c>
+      <c r="F64" s="5">
+        <v>29.120000000000005</v>
+      </c>
+      <c r="G64" s="4">
+        <v>208</v>
+      </c>
+      <c r="H64" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="26">
+        <v>21</v>
+      </c>
+      <c r="D65" s="27">
+        <v>12</v>
+      </c>
+      <c r="E65" s="7">
+        <v>5</v>
+      </c>
+      <c r="F65" s="5">
+        <v>28.980000000000004</v>
+      </c>
+      <c r="G65" s="4">
+        <v>207</v>
+      </c>
+      <c r="H65" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="26">
+        <v>21</v>
+      </c>
+      <c r="D66" s="27">
+        <v>2</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
+        <v>45.57</v>
+      </c>
+      <c r="G66" s="4">
+        <v>217</v>
+      </c>
+      <c r="H66" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="2">
+        <v>22</v>
+      </c>
+      <c r="D67" s="27">
+        <v>12</v>
+      </c>
+      <c r="E67" s="7">
+        <v>5</v>
+      </c>
+      <c r="F67" s="5">
+        <v>37.910000000000004</v>
+      </c>
+      <c r="G67" s="4">
+        <v>223</v>
+      </c>
+      <c r="H67" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="26">
+        <v>22</v>
+      </c>
+      <c r="D68" s="27">
+        <v>11</v>
+      </c>
+      <c r="E68" s="7">
+        <v>5</v>
+      </c>
+      <c r="F68" s="5">
+        <v>83.16</v>
+      </c>
+      <c r="G68" s="4">
+        <v>231</v>
+      </c>
+      <c r="H68" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="26">
+        <v>22</v>
+      </c>
+      <c r="D69" s="27">
+        <v>2</v>
+      </c>
+      <c r="E69" s="7">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>36.480000000000004</v>
+      </c>
+      <c r="G69" s="4">
+        <v>228</v>
+      </c>
+      <c r="H69" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="2">
+        <v>23</v>
+      </c>
+      <c r="D70" s="27">
+        <v>13</v>
+      </c>
+      <c r="E70" s="7">
+        <v>4</v>
+      </c>
+      <c r="F70" s="5">
+        <v>82.53</v>
+      </c>
+      <c r="G70" s="4">
+        <v>393</v>
+      </c>
+      <c r="H70" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="26">
+        <v>23</v>
+      </c>
+      <c r="D71" s="27">
+        <v>13</v>
+      </c>
+      <c r="E71" s="7">
+        <v>4</v>
+      </c>
+      <c r="F71" s="5">
+        <v>39</v>
+      </c>
+      <c r="G71" s="4">
+        <v>390</v>
+      </c>
+      <c r="H71" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="26">
+        <v>23</v>
+      </c>
+      <c r="D72" s="27">
+        <v>2</v>
+      </c>
+      <c r="E72" s="7">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>5.97</v>
+      </c>
+      <c r="G72" s="4">
+        <v>199</v>
+      </c>
+      <c r="H72" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="2">
+        <v>24</v>
+      </c>
+      <c r="D73" s="27">
+        <v>13</v>
+      </c>
+      <c r="E73" s="7">
+        <v>4</v>
+      </c>
+      <c r="F73" s="5">
+        <v>39.36</v>
+      </c>
+      <c r="G73" s="4">
+        <v>246</v>
+      </c>
+      <c r="H73" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="26">
+        <v>24</v>
+      </c>
+      <c r="D74" s="27">
+        <v>13</v>
+      </c>
+      <c r="E74" s="7">
+        <v>4</v>
+      </c>
+      <c r="F74" s="5">
+        <v>27.06</v>
+      </c>
+      <c r="G74" s="4">
+        <v>246</v>
+      </c>
+      <c r="H74" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="26">
+        <v>24</v>
+      </c>
+      <c r="D75" s="27">
+        <v>2</v>
+      </c>
+      <c r="E75" s="7">
+        <v>1</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="G75" s="4">
+        <v>127</v>
+      </c>
+      <c r="H75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2">
+        <v>25</v>
+      </c>
+      <c r="D76" s="27">
+        <v>14</v>
+      </c>
+      <c r="E76" s="7">
+        <v>4</v>
+      </c>
+      <c r="F76" s="5">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="G76" s="4">
+        <v>111</v>
+      </c>
+      <c r="H76" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="26">
+        <v>25</v>
+      </c>
+      <c r="D77" s="27">
+        <v>6</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>109</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="2">
+        <v>26</v>
+      </c>
+      <c r="D78" s="27">
+        <v>15</v>
+      </c>
+      <c r="E78" s="7">
+        <v>2</v>
+      </c>
+      <c r="F78" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="G78" s="4">
+        <v>256</v>
+      </c>
+      <c r="H78" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="26">
+        <v>26</v>
+      </c>
+      <c r="D79" s="27">
+        <v>2</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>2.66</v>
+      </c>
+      <c r="G79" s="4">
+        <v>133</v>
+      </c>
+      <c r="H79" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="2">
+        <v>27</v>
+      </c>
+      <c r="D80" s="27">
+        <v>15</v>
+      </c>
+      <c r="E80" s="7">
+        <v>2</v>
+      </c>
+      <c r="F80" s="5">
+        <v>11.55</v>
+      </c>
+      <c r="G80" s="4">
+        <v>105</v>
+      </c>
+      <c r="H80" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="26">
+        <v>27</v>
+      </c>
+      <c r="D81" s="27">
+        <v>15</v>
+      </c>
+      <c r="E81" s="7">
+        <v>2</v>
+      </c>
+      <c r="F81" s="5">
+        <v>19.55</v>
+      </c>
+      <c r="G81" s="4">
+        <v>115</v>
+      </c>
+      <c r="H81" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="26">
+        <v>27</v>
+      </c>
+      <c r="D82" s="27">
+        <v>2</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1</v>
+      </c>
+      <c r="F82" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="G82" s="4">
+        <v>119</v>
+      </c>
+      <c r="H82" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="2">
+        <v>28</v>
+      </c>
+      <c r="D83" s="27">
+        <v>16</v>
+      </c>
+      <c r="E83" s="7">
+        <v>2</v>
+      </c>
+      <c r="F83" s="5">
+        <v>30.310000000000002</v>
+      </c>
+      <c r="G83" s="4">
+        <v>433</v>
+      </c>
+      <c r="H83" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="26">
+        <v>28</v>
+      </c>
+      <c r="D84" s="27">
+        <v>6</v>
+      </c>
+      <c r="E84" s="7">
+        <v>1</v>
+      </c>
+      <c r="F84" s="5">
+        <v>43.800000000000004</v>
+      </c>
+      <c r="G84" s="4">
+        <v>219</v>
+      </c>
+      <c r="H84" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="2">
+        <v>29</v>
+      </c>
+      <c r="D85" s="27">
+        <v>15</v>
+      </c>
+      <c r="E85" s="7">
+        <v>2</v>
+      </c>
+      <c r="F85" s="5">
+        <v>201.39</v>
+      </c>
+      <c r="G85" s="4">
+        <v>959</v>
+      </c>
+      <c r="H85" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="26">
+        <v>29</v>
+      </c>
+      <c r="D86" s="27">
+        <v>2</v>
+      </c>
+      <c r="E86" s="7">
+        <v>1</v>
+      </c>
+      <c r="F86" s="5">
+        <v>38.56</v>
+      </c>
+      <c r="G86" s="4">
+        <v>482</v>
+      </c>
+      <c r="H86" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="2">
+        <v>30</v>
+      </c>
+      <c r="D87" s="27">
+        <v>17</v>
+      </c>
+      <c r="E87" s="7">
+        <v>8</v>
+      </c>
+      <c r="F87" s="5">
+        <v>35.76</v>
+      </c>
+      <c r="G87" s="4">
+        <v>298</v>
+      </c>
+      <c r="H87" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="26">
+        <v>30</v>
+      </c>
+      <c r="D88" s="27">
+        <v>2</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1</v>
+      </c>
+      <c r="F88" s="5">
+        <v>22.11</v>
+      </c>
+      <c r="G88" s="4">
+        <v>201</v>
+      </c>
+      <c r="H88" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="2">
+        <v>31</v>
+      </c>
+      <c r="D89" s="27">
+        <v>18</v>
+      </c>
+      <c r="E89" s="7">
+        <v>8</v>
+      </c>
+      <c r="F89" s="5">
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="G89" s="4">
+        <v>40</v>
+      </c>
+      <c r="H89" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="26">
+        <v>31</v>
+      </c>
+      <c r="D90" s="28">
+        <v>19</v>
+      </c>
+      <c r="E90" s="9">
+        <v>8</v>
+      </c>
+      <c r="F90" s="5">
+        <v>6</v>
+      </c>
+      <c r="G90" s="4">
+        <v>40</v>
+      </c>
+      <c r="H90" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="26">
+        <v>31</v>
+      </c>
+      <c r="D91" s="27">
+        <v>17</v>
+      </c>
+      <c r="E91" s="7">
+        <v>8</v>
+      </c>
+      <c r="F91" s="5">
+        <v>6.1499999999999995</v>
+      </c>
+      <c r="G91" s="4">
+        <v>41</v>
+      </c>
+      <c r="H91" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="26">
+        <v>31</v>
+      </c>
+      <c r="D92" s="27">
+        <v>2</v>
+      </c>
+      <c r="E92" s="7">
+        <v>1</v>
+      </c>
+      <c r="F92" s="5">
+        <v>2</v>
+      </c>
+      <c r="G92" s="4">
+        <v>40</v>
+      </c>
+      <c r="H92" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="2">
+        <v>32</v>
+      </c>
+      <c r="D93" s="27">
+        <v>17</v>
+      </c>
+      <c r="E93" s="7">
+        <v>8</v>
+      </c>
+      <c r="F93" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="G93" s="4">
+        <v>123</v>
+      </c>
+      <c r="H93" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="26">
+        <v>32</v>
+      </c>
+      <c r="D94" s="27">
+        <v>17</v>
+      </c>
+      <c r="E94" s="7">
+        <v>8</v>
+      </c>
+      <c r="F94" s="5">
+        <v>15.860000000000001</v>
+      </c>
+      <c r="G94" s="4">
+        <v>122</v>
+      </c>
+      <c r="H94" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="26">
+        <v>32</v>
+      </c>
+      <c r="D95" s="27">
+        <v>2</v>
+      </c>
+      <c r="E95" s="7">
+        <v>1</v>
+      </c>
+      <c r="F95" s="5">
+        <v>6.15</v>
+      </c>
+      <c r="G95" s="7">
+        <v>123</v>
+      </c>
+      <c r="H95" s="8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>